--- a/biology/Botanique/Alocasia_macrorrhizos/Alocasia_macrorrhizos.xlsx
+++ b/biology/Botanique/Alocasia_macrorrhizos/Alocasia_macrorrhizos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">songe caraïbe, taro géant, oreille d'éléphant
 Le Songe caraïbe, Alocasia macrorrhizos (L.) G. Don, est une espèce de plantes de la famille des Araceae, originaire de l'Asie du Sud-Est. Elle est aussi appelée Alocasie, Alocasie à grandes racines, Alocasie à grosse racine, taro géant ou oreille d'éléphant.
@@ -514,11 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aspect général
-Feuilles
-Fleurs
-Spathe typique des aracées enveloppent l'inflorescence nommée le spadice pour cette famille.
-Fruits</t>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spathe typique des aracées enveloppent l'inflorescence nommée le spadice pour cette famille.
+</t>
         </is>
       </c>
     </row>
@@ -546,13 +561,15 @@
           <t>Nom usuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Alocasia macrorrhiza est synonyme et plus fréquent mais Alocasia macrorrhizos est à privilégier[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Alocasia macrorrhiza est synonyme et plus fréquent mais Alocasia macrorrhizos est à privilégier.
 À La Réunion, où on la retrouve, on l'appelle « songe papangue ».
-En Polynésie française, où elle est connue sous ses noms tahitien 'ape ou paumotu kape, sa racine était autrefois utilisée pour l'alimentation. Elle est encore consommée aujourd'hui sous forme de po'e[2].
-A Wallis et Futuna, elle est appelée kape en wallisien[3] et en futunien[4].
-En Nouvelle-Calédonie, c'est l'appellation de « taro géant » qui est la plus usitée en langue française[5]. On l'appelle koè en ajië, makué en drehu, néévié en drubea, kape en fagauvea, kyo kaan niuk en nemi, wayaca en nengone, wëwé en paicî et kwèè en xârâcùù[5].
+En Polynésie française, où elle est connue sous ses noms tahitien 'ape ou paumotu kape, sa racine était autrefois utilisée pour l'alimentation. Elle est encore consommée aujourd'hui sous forme de po'e.
+A Wallis et Futuna, elle est appelée kape en wallisien et en futunien.
+En Nouvelle-Calédonie, c'est l'appellation de « taro géant » qui est la plus usitée en langue française. On l'appelle koè en ajië, makué en drehu, néévié en drubea, kape en fagauvea, kyo kaan niuk en nemi, wayaca en nengone, wëwé en paicî et kwèè en xârâcùù.
 </t>
         </is>
       </c>
@@ -581,10 +598,12 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs cas d'empoisonnement[6],[7] ont été recensés à la suite de l'ingestion de la racine : la plante contient des alcaloïdes et de l'oxalate de calcium pouvant provoquer des troubles neurologiques, gastro-intestinaux ainsi que de graves brûlures des muqueuses.
-Le tubercule de cette plante est consommé notamment par les Calédoniens. Il peut constituer une nourriture de disette, après une cuisson longue sur des pierres chaudes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs cas d'empoisonnement, ont été recensés à la suite de l'ingestion de la racine : la plante contient des alcaloïdes et de l'oxalate de calcium pouvant provoquer des troubles neurologiques, gastro-intestinaux ainsi que de graves brûlures des muqueuses.
+Le tubercule de cette plante est consommé notamment par les Calédoniens. Il peut constituer une nourriture de disette, après une cuisson longue sur des pierres chaudes.
 </t>
         </is>
       </c>
